--- a/Quad_Copter/Capstone_Quadcopter_Bill of Materials.xlsx
+++ b/Quad_Copter/Capstone_Quadcopter_Bill of Materials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/447eb0fe645bf98e/Desktop/CAPSTONE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phamt\Documents\GitHub\Capstone-Sightline\Quad_Copter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="8_{59E91EB4-6578-4BC1-AD93-3BAA1964689B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{52EC922B-767B-473A-BF4E-B31402741651}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609E7FEF-C1FB-4D7F-AED1-D956BEC64491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -478,6 +477,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -497,14 +514,16 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,26 +533,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,7 +853,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -873,54 +872,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="14">
+      <c r="B3" s="23"/>
+      <c r="C3" s="26">
         <v>43466</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
@@ -938,19 +937,19 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -967,7 +966,7 @@
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -979,10 +978,10 @@
       <c r="H5">
         <v>604.4</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="9">
         <v>229</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -990,19 +989,19 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -1011,10 +1010,10 @@
       <c r="H6">
         <v>60</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="9">
         <v>17.5</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1022,7 +1021,7 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4">
@@ -1031,22 +1030,22 @@
       <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="9">
         <v>229</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1054,7 +1053,7 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4">
@@ -1063,10 +1062,10 @@
       <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -1075,10 +1074,10 @@
       <c r="H8">
         <v>5.8</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="9">
         <v>31.99</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1086,7 +1085,7 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4">
@@ -1095,10 +1094,10 @@
       <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1107,10 +1106,10 @@
       <c r="H9">
         <v>480</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="9">
         <v>129.97999999999999</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1118,19 +1117,19 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -1139,16 +1138,16 @@
       <c r="H10">
         <v>200</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="9">
         <v>210.95</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" t="str">
-        <f t="shared" ref="A5:A360" si="0">IF(ISBLANK(C11),"",ROW()-4)</f>
+        <f t="shared" ref="A11:A360" si="0">IF(ISBLANK(C11),"",ROW()-4)</f>
         <v/>
       </c>
       <c r="B11" s="4"/>
@@ -1168,10 +1167,10 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1198,10 +1197,10 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="16">
         <v>848.42</v>
       </c>
     </row>
@@ -5227,13 +5226,13 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="F1:J3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F1:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{1810A791-4B2C-450B-8AF8-9C05883AAA86}"/>

--- a/Quad_Copter/Capstone_Quadcopter_Bill of Materials.xlsx
+++ b/Quad_Copter/Capstone_Quadcopter_Bill of Materials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phamt\Documents\GitHub\Capstone-Sightline\Quad_Copter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/447eb0fe645bf98e/Documents/GitHub/Capstone-Sightline/Quad_Copter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609E7FEF-C1FB-4D7F-AED1-D956BEC64491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{609E7FEF-C1FB-4D7F-AED1-D956BEC64491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1D8F7342-79A9-4B8D-9733-75B5581CAAC1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Item</t>
   </si>
@@ -51,9 +52,6 @@
   </si>
   <si>
     <t>Capstone Quadcopter</t>
-  </si>
-  <si>
-    <t>III</t>
   </si>
   <si>
     <t>Vendor</t>
@@ -81,9 +79,6 @@
   </si>
   <si>
     <t>Weight (g)</t>
-  </si>
-  <si>
-    <t>Cost</t>
   </si>
   <si>
     <t>Shipping Time</t>
@@ -134,9 +129,6 @@
     <t>PIXHAWK 4 ADVANCED DEVELOPMENT KIT</t>
   </si>
   <si>
-    <t>1.35 kg</t>
-  </si>
-  <si>
     <t>Total Cost</t>
   </si>
   <si>
@@ -146,21 +138,40 @@
     <t>SPARKFUN LINK</t>
   </si>
   <si>
-    <t xml:space="preserve">ESTIMATED WEIGHT </t>
+    <t>Sightline</t>
   </si>
   <si>
-    <t>Sightline</t>
+    <t>Tenergy TB6-B Balance Charger Discharger 1S-6S Digital Battery Pack Charger</t>
+  </si>
+  <si>
+    <t>Cost Per Item</t>
+  </si>
+  <si>
+    <t>Tenergy</t>
+  </si>
+  <si>
+    <t>B00466PKE0</t>
+  </si>
+  <si>
+    <t>PIXHAWK 4 RADIO TELEMETRY KIT</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTIMATED WEIGHT (g) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -212,6 +223,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -233,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -459,12 +477,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -490,11 +519,53 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -514,25 +585,11 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -850,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -861,72 +918,76 @@
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="26" width="8" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="27" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="19"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="30"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="26">
-        <v>43466</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="42">
+        <v>43480</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="31"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -935,248 +996,318 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A5" s="20">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="H5">
         <v>604.4</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="24">
         <v>229</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9">
+        <f>C5*I5</f>
+        <v>229</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A6" s="20">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="H6">
         <v>60</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="24">
         <v>17.5</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9">
+        <f t="shared" ref="J6:J12" si="0">C6*I6</f>
+        <v>17.5</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A7" s="20">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="25">
+        <v>229</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>229</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A8" s="20">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="21">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="D8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="I7" s="9">
-        <v>229</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="H8">
         <v>5.8</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="24">
         <v>31.99</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A9">
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>31.99</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="C9" s="21">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="H9">
         <v>480</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="24">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="0"/>
         <v>129.97999999999999</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A10">
+      <c r="K9" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A10" s="20">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4">
+        <v>34</v>
+      </c>
+      <c r="C10" s="21">
         <v>1</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>34</v>
+      <c r="D10" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10">
         <v>200</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="24">
         <v>210.95</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" t="str">
-        <f t="shared" ref="A11:A360" si="0">IF(ISBLANK(C11),"",ROW()-4)</f>
-        <v/>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" t="str">
+      <c r="J10" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="17" t="s">
+        <v>210.95</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="31.5" customHeight="1">
+      <c r="A11" s="20">
+        <v>7</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="G11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="9">
+        <v>54.99</v>
+      </c>
+      <c r="J11" s="9">
+        <f>C11*I11</f>
+        <v>54.99</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A12" s="20">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="F12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="22">
+        <v>15</v>
+      </c>
+      <c r="I12" s="22">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
+        <v>39.950000000000003</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A12:A360" si="1">IF(ISBLANK(C13),"",ROW()-4)</f>
         <v/>
       </c>
       <c r="B13" s="4"/>
@@ -1186,9 +1317,9 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="14.25" customHeight="1">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B14" s="4"/>
@@ -1197,16 +1328,13 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="16">
-        <v>848.42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" thickTop="1">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B15" s="4"/>
@@ -1216,9 +1344,9 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1">
+    <row r="16" spans="1:11" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B16" s="4"/>
@@ -1226,11 +1354,17 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1">
+      <c r="G16" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="45">
+        <f>SUM(H5:H12)</f>
+        <v>1365.1999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" thickTop="1">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B17" s="4"/>
@@ -1240,121 +1374,129 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1">
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1">
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1">
+      <c r="H19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="15">
+        <f>SUM(J5:J12)</f>
+        <v>943.36000000000013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" thickTop="1">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1">
+    <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1">
+    <row r="22" spans="1:10" ht="14.25" customHeight="1">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1">
+    <row r="23" spans="1:10" ht="14.25" customHeight="1">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1">
+    <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1">
+    <row r="25" spans="1:10" ht="14.25" customHeight="1">
       <c r="A25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1">
+    <row r="26" spans="1:10" ht="14.25" customHeight="1">
       <c r="A26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1">
+    <row r="27" spans="1:10" ht="14.25" customHeight="1">
       <c r="A27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1">
+    <row r="28" spans="1:10" ht="14.25" customHeight="1">
       <c r="A28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1">
+    <row r="29" spans="1:10" ht="14.25" customHeight="1">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1">
+    <row r="30" spans="1:10" ht="14.25" customHeight="1">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1">
+    <row r="31" spans="1:10" ht="14.25" customHeight="1">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1">
+    <row r="32" spans="1:10" ht="14.25" customHeight="1">
       <c r="A32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B32" s="4"/>
@@ -1362,7 +1504,7 @@
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B33" s="4"/>
@@ -1370,7 +1512,7 @@
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B34" s="4"/>
@@ -1378,7 +1520,7 @@
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B35" s="4"/>
@@ -1386,7 +1528,7 @@
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B36" s="4"/>
@@ -1394,7 +1536,7 @@
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B37" s="4"/>
@@ -1402,7 +1544,7 @@
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B38" s="4"/>
@@ -1410,7 +1552,7 @@
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B39" s="4"/>
@@ -1418,7 +1560,7 @@
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B40" s="4"/>
@@ -1426,7 +1568,7 @@
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B41" s="4"/>
@@ -1434,7 +1576,7 @@
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B42" s="4"/>
@@ -1442,7 +1584,7 @@
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B43" s="4"/>
@@ -1450,7 +1592,7 @@
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B44" s="4"/>
@@ -1458,7 +1600,7 @@
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B45" s="4"/>
@@ -1466,7 +1608,7 @@
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B46" s="4"/>
@@ -1474,7 +1616,7 @@
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B47" s="4"/>
@@ -1482,7 +1624,7 @@
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B48" s="4"/>
@@ -1490,7 +1632,7 @@
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B49" s="4"/>
@@ -1498,7 +1640,7 @@
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B50" s="4"/>
@@ -1506,7 +1648,7 @@
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B51" s="4"/>
@@ -1514,7 +1656,7 @@
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B52" s="4"/>
@@ -1522,7 +1664,7 @@
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B53" s="4"/>
@@ -1530,7 +1672,7 @@
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B54" s="4"/>
@@ -1538,7 +1680,7 @@
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B55" s="4"/>
@@ -1546,7 +1688,7 @@
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B56" s="4"/>
@@ -1554,7 +1696,7 @@
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B57" s="4"/>
@@ -1562,7 +1704,7 @@
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B58" s="4"/>
@@ -1570,7 +1712,7 @@
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B59" s="4"/>
@@ -1578,7 +1720,7 @@
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B60" s="4"/>
@@ -1586,7 +1728,7 @@
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B61" s="4"/>
@@ -1594,7 +1736,7 @@
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B62" s="4"/>
@@ -1602,7 +1744,7 @@
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B63" s="4"/>
@@ -1610,7 +1752,7 @@
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B64" s="4"/>
@@ -1618,7 +1760,7 @@
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B65" s="4"/>
@@ -1626,7 +1768,7 @@
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B66" s="4"/>
@@ -1634,7 +1776,7 @@
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B67" s="4"/>
@@ -1642,7 +1784,7 @@
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B68" s="4"/>
@@ -1650,7 +1792,7 @@
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B69" s="4"/>
@@ -1658,7 +1800,7 @@
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B70" s="4"/>
@@ -1666,7 +1808,7 @@
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B71" s="4"/>
@@ -1674,7 +1816,7 @@
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B72" s="4"/>
@@ -1682,7 +1824,7 @@
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B73" s="4"/>
@@ -1690,7 +1832,7 @@
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B74" s="4"/>
@@ -1698,7 +1840,7 @@
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B75" s="4"/>
@@ -1706,7 +1848,7 @@
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B76" s="4"/>
@@ -1714,7 +1856,7 @@
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B77" s="4"/>
@@ -1722,7 +1864,7 @@
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B78" s="4"/>
@@ -1730,7 +1872,7 @@
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B79" s="4"/>
@@ -1738,7 +1880,7 @@
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B80" s="4"/>
@@ -1746,7 +1888,7 @@
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B81" s="4"/>
@@ -1754,7 +1896,7 @@
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1">
       <c r="A82" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B82" s="4"/>
@@ -1762,7 +1904,7 @@
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1">
       <c r="A83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B83" s="4"/>
@@ -1770,7 +1912,7 @@
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1">
       <c r="A84" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B84" s="4"/>
@@ -1778,7 +1920,7 @@
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1">
       <c r="A85" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B85" s="4"/>
@@ -1786,7 +1928,7 @@
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1">
       <c r="A86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B86" s="4"/>
@@ -1794,7 +1936,7 @@
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1">
       <c r="A87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B87" s="4"/>
@@ -1802,7 +1944,7 @@
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1">
       <c r="A88" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B88" s="4"/>
@@ -1810,7 +1952,7 @@
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1">
       <c r="A89" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B89" s="4"/>
@@ -1818,7 +1960,7 @@
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1">
       <c r="A90" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B90" s="4"/>
@@ -1826,7 +1968,7 @@
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1">
       <c r="A91" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B91" s="4"/>
@@ -1834,7 +1976,7 @@
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1">
       <c r="A92" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B92" s="4"/>
@@ -1842,7 +1984,7 @@
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1">
       <c r="A93" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B93" s="4"/>
@@ -1850,7 +1992,7 @@
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1">
       <c r="A94" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B94" s="4"/>
@@ -1858,7 +2000,7 @@
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1">
       <c r="A95" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B95" s="4"/>
@@ -1866,7 +2008,7 @@
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1">
       <c r="A96" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B96" s="4"/>
@@ -1874,7 +2016,7 @@
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1">
       <c r="A97" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B97" s="4"/>
@@ -1882,7 +2024,7 @@
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1">
       <c r="A98" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B98" s="4"/>
@@ -1890,7 +2032,7 @@
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1">
       <c r="A99" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B99" s="4"/>
@@ -1898,7 +2040,7 @@
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1">
       <c r="A100" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B100" s="4"/>
@@ -1906,7 +2048,7 @@
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1">
       <c r="A101" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B101" s="4"/>
@@ -1914,7 +2056,7 @@
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1">
       <c r="A102" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B102" s="4"/>
@@ -1922,7 +2064,7 @@
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1">
       <c r="A103" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B103" s="4"/>
@@ -1930,7 +2072,7 @@
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1">
       <c r="A104" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B104" s="4"/>
@@ -1938,7 +2080,7 @@
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1">
       <c r="A105" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B105" s="4"/>
@@ -1946,7 +2088,7 @@
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1">
       <c r="A106" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B106" s="4"/>
@@ -1954,7 +2096,7 @@
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1">
       <c r="A107" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B107" s="4"/>
@@ -1962,7 +2104,7 @@
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1">
       <c r="A108" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B108" s="4"/>
@@ -1970,7 +2112,7 @@
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1">
       <c r="A109" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B109" s="4"/>
@@ -1978,7 +2120,7 @@
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1">
       <c r="A110" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B110" s="4"/>
@@ -1986,7 +2128,7 @@
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1">
       <c r="A111" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B111" s="4"/>
@@ -1994,7 +2136,7 @@
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1">
       <c r="A112" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B112" s="4"/>
@@ -2002,7 +2144,7 @@
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1">
       <c r="A113" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B113" s="4"/>
@@ -2010,7 +2152,7 @@
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1">
       <c r="A114" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B114" s="4"/>
@@ -2018,7 +2160,7 @@
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1">
       <c r="A115" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B115" s="4"/>
@@ -2026,7 +2168,7 @@
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1">
       <c r="A116" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B116" s="4"/>
@@ -2034,7 +2176,7 @@
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1">
       <c r="A117" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B117" s="4"/>
@@ -2042,7 +2184,7 @@
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1">
       <c r="A118" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B118" s="4"/>
@@ -2050,7 +2192,7 @@
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1">
       <c r="A119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B119" s="4"/>
@@ -2058,7 +2200,7 @@
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1">
       <c r="A120" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B120" s="4"/>
@@ -2066,7 +2208,7 @@
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1">
       <c r="A121" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B121" s="4"/>
@@ -2074,7 +2216,7 @@
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1">
       <c r="A122" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B122" s="4"/>
@@ -2082,7 +2224,7 @@
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1">
       <c r="A123" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B123" s="4"/>
@@ -2090,7 +2232,7 @@
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1">
       <c r="A124" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B124" s="4"/>
@@ -2098,7 +2240,7 @@
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1">
       <c r="A125" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B125" s="4"/>
@@ -2106,7 +2248,7 @@
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1">
       <c r="A126" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B126" s="4"/>
@@ -2114,7 +2256,7 @@
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1">
       <c r="A127" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B127" s="4"/>
@@ -2122,7 +2264,7 @@
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1">
       <c r="A128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B128" s="4"/>
@@ -2130,7 +2272,7 @@
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1">
       <c r="A129" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B129" s="4"/>
@@ -2138,7 +2280,7 @@
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1">
       <c r="A130" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B130" s="4"/>
@@ -2146,7 +2288,7 @@
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1">
       <c r="A131" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B131" s="4"/>
@@ -2154,7 +2296,7 @@
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1">
       <c r="A132" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B132" s="4"/>
@@ -2162,7 +2304,7 @@
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1">
       <c r="A133" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B133" s="4"/>
@@ -2170,7 +2312,7 @@
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1">
       <c r="A134" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B134" s="4"/>
@@ -2178,7 +2320,7 @@
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1">
       <c r="A135" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B135" s="4"/>
@@ -2186,7 +2328,7 @@
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1">
       <c r="A136" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B136" s="4"/>
@@ -2194,7 +2336,7 @@
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1">
       <c r="A137" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B137" s="4"/>
@@ -2202,7 +2344,7 @@
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1">
       <c r="A138" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B138" s="4"/>
@@ -2210,7 +2352,7 @@
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1">
       <c r="A139" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B139" s="4"/>
@@ -2218,7 +2360,7 @@
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1">
       <c r="A140" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B140" s="4"/>
@@ -2226,7 +2368,7 @@
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1">
       <c r="A141" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B141" s="4"/>
@@ -2234,7 +2376,7 @@
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1">
       <c r="A142" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B142" s="4"/>
@@ -2242,7 +2384,7 @@
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1">
       <c r="A143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B143" s="4"/>
@@ -2250,7 +2392,7 @@
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1">
       <c r="A144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B144" s="4"/>
@@ -2258,7 +2400,7 @@
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1">
       <c r="A145" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B145" s="4"/>
@@ -2266,7 +2408,7 @@
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1">
       <c r="A146" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B146" s="4"/>
@@ -2274,7 +2416,7 @@
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1">
       <c r="A147" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B147" s="4"/>
@@ -2282,7 +2424,7 @@
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1">
       <c r="A148" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B148" s="4"/>
@@ -2290,7 +2432,7 @@
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1">
       <c r="A149" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B149" s="4"/>
@@ -2298,7 +2440,7 @@
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1">
       <c r="A150" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B150" s="4"/>
@@ -2306,7 +2448,7 @@
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1">
       <c r="A151" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B151" s="4"/>
@@ -2314,7 +2456,7 @@
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1">
       <c r="A152" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B152" s="4"/>
@@ -2322,7 +2464,7 @@
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1">
       <c r="A153" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B153" s="4"/>
@@ -2330,7 +2472,7 @@
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1">
       <c r="A154" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B154" s="4"/>
@@ -2338,7 +2480,7 @@
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1">
       <c r="A155" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B155" s="4"/>
@@ -2346,7 +2488,7 @@
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1">
       <c r="A156" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B156" s="4"/>
@@ -2354,7 +2496,7 @@
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1">
       <c r="A157" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B157" s="4"/>
@@ -2362,7 +2504,7 @@
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1">
       <c r="A158" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B158" s="4"/>
@@ -2370,7 +2512,7 @@
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1">
       <c r="A159" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B159" s="4"/>
@@ -2378,7 +2520,7 @@
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1">
       <c r="A160" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B160" s="4"/>
@@ -2386,7 +2528,7 @@
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1">
       <c r="A161" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B161" s="4"/>
@@ -2394,7 +2536,7 @@
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1">
       <c r="A162" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B162" s="4"/>
@@ -2402,7 +2544,7 @@
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1">
       <c r="A163" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B163" s="4"/>
@@ -2410,7 +2552,7 @@
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1">
       <c r="A164" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B164" s="4"/>
@@ -2418,7 +2560,7 @@
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1">
       <c r="A165" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B165" s="4"/>
@@ -2426,7 +2568,7 @@
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1">
       <c r="A166" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B166" s="4"/>
@@ -2434,7 +2576,7 @@
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1">
       <c r="A167" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B167" s="4"/>
@@ -2442,7 +2584,7 @@
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1">
       <c r="A168" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B168" s="4"/>
@@ -2450,7 +2592,7 @@
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1">
       <c r="A169" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B169" s="4"/>
@@ -2458,7 +2600,7 @@
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1">
       <c r="A170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B170" s="4"/>
@@ -2466,7 +2608,7 @@
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1">
       <c r="A171" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B171" s="4"/>
@@ -2474,7 +2616,7 @@
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1">
       <c r="A172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B172" s="4"/>
@@ -2482,7 +2624,7 @@
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1">
       <c r="A173" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B173" s="4"/>
@@ -2490,7 +2632,7 @@
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1">
       <c r="A174" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B174" s="4"/>
@@ -2498,7 +2640,7 @@
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1">
       <c r="A175" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B175" s="4"/>
@@ -2506,7 +2648,7 @@
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1">
       <c r="A176" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B176" s="4"/>
@@ -2514,7 +2656,7 @@
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1">
       <c r="A177" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B177" s="4"/>
@@ -2522,7 +2664,7 @@
     </row>
     <row r="178" spans="1:3" ht="14.25" customHeight="1">
       <c r="A178" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B178" s="4"/>
@@ -2530,7 +2672,7 @@
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1">
       <c r="A179" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B179" s="4"/>
@@ -2538,7 +2680,7 @@
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1">
       <c r="A180" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B180" s="4"/>
@@ -2546,7 +2688,7 @@
     </row>
     <row r="181" spans="1:3" ht="14.25" customHeight="1">
       <c r="A181" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B181" s="4"/>
@@ -2554,7 +2696,7 @@
     </row>
     <row r="182" spans="1:3" ht="14.25" customHeight="1">
       <c r="A182" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B182" s="4"/>
@@ -2562,7 +2704,7 @@
     </row>
     <row r="183" spans="1:3" ht="14.25" customHeight="1">
       <c r="A183" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B183" s="4"/>
@@ -2570,7 +2712,7 @@
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1">
       <c r="A184" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B184" s="4"/>
@@ -2578,7 +2720,7 @@
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1">
       <c r="A185" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B185" s="4"/>
@@ -2586,7 +2728,7 @@
     </row>
     <row r="186" spans="1:3" ht="14.25" customHeight="1">
       <c r="A186" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B186" s="4"/>
@@ -2594,7 +2736,7 @@
     </row>
     <row r="187" spans="1:3" ht="14.25" customHeight="1">
       <c r="A187" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B187" s="4"/>
@@ -2602,7 +2744,7 @@
     </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1">
       <c r="A188" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B188" s="4"/>
@@ -2610,7 +2752,7 @@
     </row>
     <row r="189" spans="1:3" ht="14.25" customHeight="1">
       <c r="A189" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B189" s="4"/>
@@ -2618,7 +2760,7 @@
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1">
       <c r="A190" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B190" s="4"/>
@@ -2626,7 +2768,7 @@
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1">
       <c r="A191" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B191" s="4"/>
@@ -2634,7 +2776,7 @@
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1">
       <c r="A192" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B192" s="4"/>
@@ -2642,7 +2784,7 @@
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1">
       <c r="A193" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B193" s="4"/>
@@ -2650,7 +2792,7 @@
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1">
       <c r="A194" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B194" s="4"/>
@@ -2658,7 +2800,7 @@
     </row>
     <row r="195" spans="1:3" ht="14.25" customHeight="1">
       <c r="A195" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B195" s="4"/>
@@ -2666,7 +2808,7 @@
     </row>
     <row r="196" spans="1:3" ht="14.25" customHeight="1">
       <c r="A196" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B196" s="4"/>
@@ -2674,7 +2816,7 @@
     </row>
     <row r="197" spans="1:3" ht="14.25" customHeight="1">
       <c r="A197" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B197" s="4"/>
@@ -2682,7 +2824,7 @@
     </row>
     <row r="198" spans="1:3" ht="14.25" customHeight="1">
       <c r="A198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B198" s="4"/>
@@ -2690,7 +2832,7 @@
     </row>
     <row r="199" spans="1:3" ht="14.25" customHeight="1">
       <c r="A199" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B199" s="4"/>
@@ -2698,7 +2840,7 @@
     </row>
     <row r="200" spans="1:3" ht="14.25" customHeight="1">
       <c r="A200" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B200" s="4"/>
@@ -2706,7 +2848,7 @@
     </row>
     <row r="201" spans="1:3" ht="14.25" customHeight="1">
       <c r="A201" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B201" s="4"/>
@@ -2714,7 +2856,7 @@
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1">
       <c r="A202" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B202" s="4"/>
@@ -2722,7 +2864,7 @@
     </row>
     <row r="203" spans="1:3" ht="14.25" customHeight="1">
       <c r="A203" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B203" s="4"/>
@@ -2730,7 +2872,7 @@
     </row>
     <row r="204" spans="1:3" ht="14.25" customHeight="1">
       <c r="A204" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B204" s="4"/>
@@ -2738,7 +2880,7 @@
     </row>
     <row r="205" spans="1:3" ht="14.25" customHeight="1">
       <c r="A205" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B205" s="4"/>
@@ -2746,7 +2888,7 @@
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1">
       <c r="A206" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B206" s="4"/>
@@ -2754,7 +2896,7 @@
     </row>
     <row r="207" spans="1:3" ht="14.25" customHeight="1">
       <c r="A207" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B207" s="4"/>
@@ -2762,7 +2904,7 @@
     </row>
     <row r="208" spans="1:3" ht="14.25" customHeight="1">
       <c r="A208" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B208" s="4"/>
@@ -2770,7 +2912,7 @@
     </row>
     <row r="209" spans="1:3" ht="14.25" customHeight="1">
       <c r="A209" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B209" s="4"/>
@@ -2778,7 +2920,7 @@
     </row>
     <row r="210" spans="1:3" ht="14.25" customHeight="1">
       <c r="A210" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B210" s="4"/>
@@ -2786,7 +2928,7 @@
     </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1">
       <c r="A211" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B211" s="4"/>
@@ -2794,7 +2936,7 @@
     </row>
     <row r="212" spans="1:3" ht="14.25" customHeight="1">
       <c r="A212" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B212" s="4"/>
@@ -2802,7 +2944,7 @@
     </row>
     <row r="213" spans="1:3" ht="14.25" customHeight="1">
       <c r="A213" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B213" s="4"/>
@@ -2810,7 +2952,7 @@
     </row>
     <row r="214" spans="1:3" ht="14.25" customHeight="1">
       <c r="A214" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B214" s="4"/>
@@ -2818,7 +2960,7 @@
     </row>
     <row r="215" spans="1:3" ht="14.25" customHeight="1">
       <c r="A215" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B215" s="4"/>
@@ -2826,7 +2968,7 @@
     </row>
     <row r="216" spans="1:3" ht="14.25" customHeight="1">
       <c r="A216" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B216" s="4"/>
@@ -2834,7 +2976,7 @@
     </row>
     <row r="217" spans="1:3" ht="14.25" customHeight="1">
       <c r="A217" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B217" s="4"/>
@@ -2842,7 +2984,7 @@
     </row>
     <row r="218" spans="1:3" ht="14.25" customHeight="1">
       <c r="A218" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B218" s="4"/>
@@ -2850,7 +2992,7 @@
     </row>
     <row r="219" spans="1:3" ht="14.25" customHeight="1">
       <c r="A219" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B219" s="4"/>
@@ -2858,7 +3000,7 @@
     </row>
     <row r="220" spans="1:3" ht="14.25" customHeight="1">
       <c r="A220" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B220" s="4"/>
@@ -2866,7 +3008,7 @@
     </row>
     <row r="221" spans="1:3" ht="14.25" customHeight="1">
       <c r="A221" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B221" s="4"/>
@@ -2874,7 +3016,7 @@
     </row>
     <row r="222" spans="1:3" ht="14.25" customHeight="1">
       <c r="A222" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B222" s="4"/>
@@ -2882,7 +3024,7 @@
     </row>
     <row r="223" spans="1:3" ht="14.25" customHeight="1">
       <c r="A223" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B223" s="4"/>
@@ -2890,7 +3032,7 @@
     </row>
     <row r="224" spans="1:3" ht="14.25" customHeight="1">
       <c r="A224" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B224" s="4"/>
@@ -2898,7 +3040,7 @@
     </row>
     <row r="225" spans="1:3" ht="14.25" customHeight="1">
       <c r="A225" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B225" s="4"/>
@@ -2906,7 +3048,7 @@
     </row>
     <row r="226" spans="1:3" ht="14.25" customHeight="1">
       <c r="A226" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B226" s="4"/>
@@ -2914,7 +3056,7 @@
     </row>
     <row r="227" spans="1:3" ht="14.25" customHeight="1">
       <c r="A227" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B227" s="4"/>
@@ -2922,7 +3064,7 @@
     </row>
     <row r="228" spans="1:3" ht="14.25" customHeight="1">
       <c r="A228" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B228" s="4"/>
@@ -2930,7 +3072,7 @@
     </row>
     <row r="229" spans="1:3" ht="14.25" customHeight="1">
       <c r="A229" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B229" s="4"/>
@@ -2938,7 +3080,7 @@
     </row>
     <row r="230" spans="1:3" ht="14.25" customHeight="1">
       <c r="A230" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B230" s="4"/>
@@ -2946,7 +3088,7 @@
     </row>
     <row r="231" spans="1:3" ht="14.25" customHeight="1">
       <c r="A231" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B231" s="4"/>
@@ -2954,7 +3096,7 @@
     </row>
     <row r="232" spans="1:3" ht="14.25" customHeight="1">
       <c r="A232" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B232" s="4"/>
@@ -2962,7 +3104,7 @@
     </row>
     <row r="233" spans="1:3" ht="14.25" customHeight="1">
       <c r="A233" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B233" s="4"/>
@@ -2970,7 +3112,7 @@
     </row>
     <row r="234" spans="1:3" ht="14.25" customHeight="1">
       <c r="A234" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B234" s="4"/>
@@ -2978,7 +3120,7 @@
     </row>
     <row r="235" spans="1:3" ht="14.25" customHeight="1">
       <c r="A235" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B235" s="4"/>
@@ -2986,7 +3128,7 @@
     </row>
     <row r="236" spans="1:3" ht="14.25" customHeight="1">
       <c r="A236" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B236" s="4"/>
@@ -2994,7 +3136,7 @@
     </row>
     <row r="237" spans="1:3" ht="14.25" customHeight="1">
       <c r="A237" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B237" s="4"/>
@@ -3002,7 +3144,7 @@
     </row>
     <row r="238" spans="1:3" ht="14.25" customHeight="1">
       <c r="A238" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B238" s="4"/>
@@ -3010,7 +3152,7 @@
     </row>
     <row r="239" spans="1:3" ht="14.25" customHeight="1">
       <c r="A239" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B239" s="4"/>
@@ -3018,7 +3160,7 @@
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1">
       <c r="A240" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B240" s="4"/>
@@ -3026,7 +3168,7 @@
     </row>
     <row r="241" spans="1:3" ht="14.25" customHeight="1">
       <c r="A241" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B241" s="4"/>
@@ -3034,7 +3176,7 @@
     </row>
     <row r="242" spans="1:3" ht="14.25" customHeight="1">
       <c r="A242" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B242" s="4"/>
@@ -3042,7 +3184,7 @@
     </row>
     <row r="243" spans="1:3" ht="14.25" customHeight="1">
       <c r="A243" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B243" s="4"/>
@@ -3050,7 +3192,7 @@
     </row>
     <row r="244" spans="1:3" ht="14.25" customHeight="1">
       <c r="A244" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B244" s="4"/>
@@ -3058,7 +3200,7 @@
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1">
       <c r="A245" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B245" s="4"/>
@@ -3066,7 +3208,7 @@
     </row>
     <row r="246" spans="1:3" ht="14.25" customHeight="1">
       <c r="A246" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B246" s="4"/>
@@ -3074,7 +3216,7 @@
     </row>
     <row r="247" spans="1:3" ht="14.25" customHeight="1">
       <c r="A247" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B247" s="4"/>
@@ -3082,7 +3224,7 @@
     </row>
     <row r="248" spans="1:3" ht="14.25" customHeight="1">
       <c r="A248" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B248" s="4"/>
@@ -3090,7 +3232,7 @@
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1">
       <c r="A249" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B249" s="4"/>
@@ -3098,7 +3240,7 @@
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1">
       <c r="A250" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B250" s="4"/>
@@ -3106,7 +3248,7 @@
     </row>
     <row r="251" spans="1:3" ht="14.25" customHeight="1">
       <c r="A251" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B251" s="4"/>
@@ -3114,7 +3256,7 @@
     </row>
     <row r="252" spans="1:3" ht="14.25" customHeight="1">
       <c r="A252" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B252" s="4"/>
@@ -3122,7 +3264,7 @@
     </row>
     <row r="253" spans="1:3" ht="14.25" customHeight="1">
       <c r="A253" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B253" s="4"/>
@@ -3130,7 +3272,7 @@
     </row>
     <row r="254" spans="1:3" ht="14.25" customHeight="1">
       <c r="A254" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B254" s="4"/>
@@ -3138,7 +3280,7 @@
     </row>
     <row r="255" spans="1:3" ht="14.25" customHeight="1">
       <c r="A255" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B255" s="4"/>
@@ -3146,7 +3288,7 @@
     </row>
     <row r="256" spans="1:3" ht="14.25" customHeight="1">
       <c r="A256" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B256" s="4"/>
@@ -3154,7 +3296,7 @@
     </row>
     <row r="257" spans="1:3" ht="14.25" customHeight="1">
       <c r="A257" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B257" s="4"/>
@@ -3162,7 +3304,7 @@
     </row>
     <row r="258" spans="1:3" ht="14.25" customHeight="1">
       <c r="A258" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B258" s="4"/>
@@ -3170,7 +3312,7 @@
     </row>
     <row r="259" spans="1:3" ht="14.25" customHeight="1">
       <c r="A259" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B259" s="4"/>
@@ -3178,7 +3320,7 @@
     </row>
     <row r="260" spans="1:3" ht="14.25" customHeight="1">
       <c r="A260" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B260" s="4"/>
@@ -3186,7 +3328,7 @@
     </row>
     <row r="261" spans="1:3" ht="14.25" customHeight="1">
       <c r="A261" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B261" s="4"/>
@@ -3194,7 +3336,7 @@
     </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1">
       <c r="A262" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B262" s="4"/>
@@ -3202,7 +3344,7 @@
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1">
       <c r="A263" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B263" s="4"/>
@@ -3210,7 +3352,7 @@
     </row>
     <row r="264" spans="1:3" ht="14.25" customHeight="1">
       <c r="A264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B264" s="4"/>
@@ -3218,7 +3360,7 @@
     </row>
     <row r="265" spans="1:3" ht="14.25" customHeight="1">
       <c r="A265" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B265" s="4"/>
@@ -3226,7 +3368,7 @@
     </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1">
       <c r="A266" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B266" s="4"/>
@@ -3234,7 +3376,7 @@
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1">
       <c r="A267" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B267" s="4"/>
@@ -3242,7 +3384,7 @@
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1">
       <c r="A268" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B268" s="4"/>
@@ -3250,7 +3392,7 @@
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1">
       <c r="A269" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B269" s="4"/>
@@ -3258,7 +3400,7 @@
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1">
       <c r="A270" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B270" s="4"/>
@@ -3266,7 +3408,7 @@
     </row>
     <row r="271" spans="1:3" ht="14.25" customHeight="1">
       <c r="A271" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B271" s="4"/>
@@ -3274,7 +3416,7 @@
     </row>
     <row r="272" spans="1:3" ht="14.25" customHeight="1">
       <c r="A272" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B272" s="4"/>
@@ -3282,7 +3424,7 @@
     </row>
     <row r="273" spans="1:3" ht="14.25" customHeight="1">
       <c r="A273" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B273" s="4"/>
@@ -3290,7 +3432,7 @@
     </row>
     <row r="274" spans="1:3" ht="14.25" customHeight="1">
       <c r="A274" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B274" s="4"/>
@@ -3298,7 +3440,7 @@
     </row>
     <row r="275" spans="1:3" ht="14.25" customHeight="1">
       <c r="A275" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B275" s="4"/>
@@ -3306,7 +3448,7 @@
     </row>
     <row r="276" spans="1:3" ht="14.25" customHeight="1">
       <c r="A276" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B276" s="4"/>
@@ -3314,7 +3456,7 @@
     </row>
     <row r="277" spans="1:3" ht="14.25" customHeight="1">
       <c r="A277" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B277" s="4"/>
@@ -3322,7 +3464,7 @@
     </row>
     <row r="278" spans="1:3" ht="14.25" customHeight="1">
       <c r="A278" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B278" s="4"/>
@@ -3330,7 +3472,7 @@
     </row>
     <row r="279" spans="1:3" ht="14.25" customHeight="1">
       <c r="A279" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B279" s="4"/>
@@ -3338,7 +3480,7 @@
     </row>
     <row r="280" spans="1:3" ht="14.25" customHeight="1">
       <c r="A280" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B280" s="4"/>
@@ -3346,7 +3488,7 @@
     </row>
     <row r="281" spans="1:3" ht="14.25" customHeight="1">
       <c r="A281" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B281" s="4"/>
@@ -3354,7 +3496,7 @@
     </row>
     <row r="282" spans="1:3" ht="14.25" customHeight="1">
       <c r="A282" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B282" s="4"/>
@@ -3362,7 +3504,7 @@
     </row>
     <row r="283" spans="1:3" ht="14.25" customHeight="1">
       <c r="A283" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B283" s="4"/>
@@ -3370,7 +3512,7 @@
     </row>
     <row r="284" spans="1:3" ht="14.25" customHeight="1">
       <c r="A284" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B284" s="4"/>
@@ -3378,7 +3520,7 @@
     </row>
     <row r="285" spans="1:3" ht="14.25" customHeight="1">
       <c r="A285" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B285" s="4"/>
@@ -3386,7 +3528,7 @@
     </row>
     <row r="286" spans="1:3" ht="14.25" customHeight="1">
       <c r="A286" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B286" s="4"/>
@@ -3394,7 +3536,7 @@
     </row>
     <row r="287" spans="1:3" ht="14.25" customHeight="1">
       <c r="A287" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B287" s="4"/>
@@ -3402,7 +3544,7 @@
     </row>
     <row r="288" spans="1:3" ht="14.25" customHeight="1">
       <c r="A288" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B288" s="4"/>
@@ -3410,7 +3552,7 @@
     </row>
     <row r="289" spans="1:3" ht="14.25" customHeight="1">
       <c r="A289" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B289" s="4"/>
@@ -3418,7 +3560,7 @@
     </row>
     <row r="290" spans="1:3" ht="14.25" customHeight="1">
       <c r="A290" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B290" s="4"/>
@@ -3426,7 +3568,7 @@
     </row>
     <row r="291" spans="1:3" ht="14.25" customHeight="1">
       <c r="A291" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B291" s="4"/>
@@ -3434,7 +3576,7 @@
     </row>
     <row r="292" spans="1:3" ht="14.25" customHeight="1">
       <c r="A292" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B292" s="4"/>
@@ -3442,7 +3584,7 @@
     </row>
     <row r="293" spans="1:3" ht="14.25" customHeight="1">
       <c r="A293" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B293" s="4"/>
@@ -3450,7 +3592,7 @@
     </row>
     <row r="294" spans="1:3" ht="14.25" customHeight="1">
       <c r="A294" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B294" s="4"/>
@@ -3458,7 +3600,7 @@
     </row>
     <row r="295" spans="1:3" ht="14.25" customHeight="1">
       <c r="A295" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B295" s="4"/>
@@ -3466,7 +3608,7 @@
     </row>
     <row r="296" spans="1:3" ht="14.25" customHeight="1">
       <c r="A296" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B296" s="4"/>
@@ -3474,7 +3616,7 @@
     </row>
     <row r="297" spans="1:3" ht="14.25" customHeight="1">
       <c r="A297" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B297" s="4"/>
@@ -3482,7 +3624,7 @@
     </row>
     <row r="298" spans="1:3" ht="14.25" customHeight="1">
       <c r="A298" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B298" s="4"/>
@@ -3490,7 +3632,7 @@
     </row>
     <row r="299" spans="1:3" ht="14.25" customHeight="1">
       <c r="A299" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B299" s="4"/>
@@ -3498,7 +3640,7 @@
     </row>
     <row r="300" spans="1:3" ht="14.25" customHeight="1">
       <c r="A300" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B300" s="4"/>
@@ -3506,7 +3648,7 @@
     </row>
     <row r="301" spans="1:3" ht="14.25" customHeight="1">
       <c r="A301" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B301" s="4"/>
@@ -3514,7 +3656,7 @@
     </row>
     <row r="302" spans="1:3" ht="14.25" customHeight="1">
       <c r="A302" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B302" s="4"/>
@@ -3522,7 +3664,7 @@
     </row>
     <row r="303" spans="1:3" ht="14.25" customHeight="1">
       <c r="A303" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B303" s="4"/>
@@ -3530,7 +3672,7 @@
     </row>
     <row r="304" spans="1:3" ht="14.25" customHeight="1">
       <c r="A304" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B304" s="4"/>
@@ -3538,7 +3680,7 @@
     </row>
     <row r="305" spans="1:3" ht="14.25" customHeight="1">
       <c r="A305" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B305" s="4"/>
@@ -3546,7 +3688,7 @@
     </row>
     <row r="306" spans="1:3" ht="14.25" customHeight="1">
       <c r="A306" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B306" s="4"/>
@@ -3554,7 +3696,7 @@
     </row>
     <row r="307" spans="1:3" ht="14.25" customHeight="1">
       <c r="A307" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B307" s="4"/>
@@ -3562,7 +3704,7 @@
     </row>
     <row r="308" spans="1:3" ht="14.25" customHeight="1">
       <c r="A308" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B308" s="4"/>
@@ -3570,7 +3712,7 @@
     </row>
     <row r="309" spans="1:3" ht="14.25" customHeight="1">
       <c r="A309" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B309" s="4"/>
@@ -3578,7 +3720,7 @@
     </row>
     <row r="310" spans="1:3" ht="14.25" customHeight="1">
       <c r="A310" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B310" s="4"/>
@@ -3586,7 +3728,7 @@
     </row>
     <row r="311" spans="1:3" ht="14.25" customHeight="1">
       <c r="A311" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B311" s="4"/>
@@ -3594,7 +3736,7 @@
     </row>
     <row r="312" spans="1:3" ht="14.25" customHeight="1">
       <c r="A312" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B312" s="4"/>
@@ -3602,7 +3744,7 @@
     </row>
     <row r="313" spans="1:3" ht="14.25" customHeight="1">
       <c r="A313" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B313" s="4"/>
@@ -3610,7 +3752,7 @@
     </row>
     <row r="314" spans="1:3" ht="14.25" customHeight="1">
       <c r="A314" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B314" s="4"/>
@@ -3618,7 +3760,7 @@
     </row>
     <row r="315" spans="1:3" ht="14.25" customHeight="1">
       <c r="A315" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B315" s="4"/>
@@ -3626,7 +3768,7 @@
     </row>
     <row r="316" spans="1:3" ht="14.25" customHeight="1">
       <c r="A316" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B316" s="4"/>
@@ -3634,7 +3776,7 @@
     </row>
     <row r="317" spans="1:3" ht="14.25" customHeight="1">
       <c r="A317" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B317" s="4"/>
@@ -3642,7 +3784,7 @@
     </row>
     <row r="318" spans="1:3" ht="14.25" customHeight="1">
       <c r="A318" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B318" s="4"/>
@@ -3650,7 +3792,7 @@
     </row>
     <row r="319" spans="1:3" ht="14.25" customHeight="1">
       <c r="A319" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B319" s="4"/>
@@ -3658,7 +3800,7 @@
     </row>
     <row r="320" spans="1:3" ht="14.25" customHeight="1">
       <c r="A320" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B320" s="4"/>
@@ -3666,7 +3808,7 @@
     </row>
     <row r="321" spans="1:3" ht="14.25" customHeight="1">
       <c r="A321" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B321" s="4"/>
@@ -3674,7 +3816,7 @@
     </row>
     <row r="322" spans="1:3" ht="14.25" customHeight="1">
       <c r="A322" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B322" s="4"/>
@@ -3682,7 +3824,7 @@
     </row>
     <row r="323" spans="1:3" ht="14.25" customHeight="1">
       <c r="A323" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B323" s="4"/>
@@ -3690,7 +3832,7 @@
     </row>
     <row r="324" spans="1:3" ht="14.25" customHeight="1">
       <c r="A324" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B324" s="4"/>
@@ -3698,7 +3840,7 @@
     </row>
     <row r="325" spans="1:3" ht="14.25" customHeight="1">
       <c r="A325" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B325" s="4"/>
@@ -3706,7 +3848,7 @@
     </row>
     <row r="326" spans="1:3" ht="14.25" customHeight="1">
       <c r="A326" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B326" s="4"/>
@@ -3714,7 +3856,7 @@
     </row>
     <row r="327" spans="1:3" ht="14.25" customHeight="1">
       <c r="A327" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B327" s="4"/>
@@ -3722,7 +3864,7 @@
     </row>
     <row r="328" spans="1:3" ht="14.25" customHeight="1">
       <c r="A328" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B328" s="4"/>
@@ -3730,7 +3872,7 @@
     </row>
     <row r="329" spans="1:3" ht="14.25" customHeight="1">
       <c r="A329" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B329" s="4"/>
@@ -3738,7 +3880,7 @@
     </row>
     <row r="330" spans="1:3" ht="14.25" customHeight="1">
       <c r="A330" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B330" s="4"/>
@@ -3746,7 +3888,7 @@
     </row>
     <row r="331" spans="1:3" ht="14.25" customHeight="1">
       <c r="A331" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B331" s="4"/>
@@ -3754,7 +3896,7 @@
     </row>
     <row r="332" spans="1:3" ht="14.25" customHeight="1">
       <c r="A332" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B332" s="4"/>
@@ -3762,7 +3904,7 @@
     </row>
     <row r="333" spans="1:3" ht="14.25" customHeight="1">
       <c r="A333" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B333" s="4"/>
@@ -3770,7 +3912,7 @@
     </row>
     <row r="334" spans="1:3" ht="14.25" customHeight="1">
       <c r="A334" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B334" s="4"/>
@@ -3778,7 +3920,7 @@
     </row>
     <row r="335" spans="1:3" ht="14.25" customHeight="1">
       <c r="A335" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B335" s="4"/>
@@ -3786,7 +3928,7 @@
     </row>
     <row r="336" spans="1:3" ht="14.25" customHeight="1">
       <c r="A336" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B336" s="4"/>
@@ -3794,7 +3936,7 @@
     </row>
     <row r="337" spans="1:3" ht="14.25" customHeight="1">
       <c r="A337" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B337" s="4"/>
@@ -3802,7 +3944,7 @@
     </row>
     <row r="338" spans="1:3" ht="14.25" customHeight="1">
       <c r="A338" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B338" s="4"/>
@@ -3810,7 +3952,7 @@
     </row>
     <row r="339" spans="1:3" ht="14.25" customHeight="1">
       <c r="A339" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B339" s="4"/>
@@ -3818,7 +3960,7 @@
     </row>
     <row r="340" spans="1:3" ht="14.25" customHeight="1">
       <c r="A340" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B340" s="4"/>
@@ -3826,7 +3968,7 @@
     </row>
     <row r="341" spans="1:3" ht="14.25" customHeight="1">
       <c r="A341" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B341" s="4"/>
@@ -3834,7 +3976,7 @@
     </row>
     <row r="342" spans="1:3" ht="14.25" customHeight="1">
       <c r="A342" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B342" s="4"/>
@@ -3842,7 +3984,7 @@
     </row>
     <row r="343" spans="1:3" ht="14.25" customHeight="1">
       <c r="A343" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B343" s="4"/>
@@ -3850,7 +3992,7 @@
     </row>
     <row r="344" spans="1:3" ht="14.25" customHeight="1">
       <c r="A344" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B344" s="4"/>
@@ -3858,7 +4000,7 @@
     </row>
     <row r="345" spans="1:3" ht="14.25" customHeight="1">
       <c r="A345" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B345" s="4"/>
@@ -3866,7 +4008,7 @@
     </row>
     <row r="346" spans="1:3" ht="14.25" customHeight="1">
       <c r="A346" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B346" s="4"/>
@@ -3874,7 +4016,7 @@
     </row>
     <row r="347" spans="1:3" ht="14.25" customHeight="1">
       <c r="A347" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B347" s="4"/>
@@ -3882,7 +4024,7 @@
     </row>
     <row r="348" spans="1:3" ht="14.25" customHeight="1">
       <c r="A348" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B348" s="4"/>
@@ -3890,7 +4032,7 @@
     </row>
     <row r="349" spans="1:3" ht="14.25" customHeight="1">
       <c r="A349" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B349" s="4"/>
@@ -3898,7 +4040,7 @@
     </row>
     <row r="350" spans="1:3" ht="14.25" customHeight="1">
       <c r="A350" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B350" s="4"/>
@@ -3906,7 +4048,7 @@
     </row>
     <row r="351" spans="1:3" ht="14.25" customHeight="1">
       <c r="A351" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B351" s="4"/>
@@ -3914,7 +4056,7 @@
     </row>
     <row r="352" spans="1:3" ht="14.25" customHeight="1">
       <c r="A352" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B352" s="4"/>
@@ -3922,7 +4064,7 @@
     </row>
     <row r="353" spans="1:3" ht="14.25" customHeight="1">
       <c r="A353" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B353" s="4"/>
@@ -3930,7 +4072,7 @@
     </row>
     <row r="354" spans="1:3" ht="14.25" customHeight="1">
       <c r="A354" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B354" s="4"/>
@@ -3938,7 +4080,7 @@
     </row>
     <row r="355" spans="1:3" ht="14.25" customHeight="1">
       <c r="A355" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B355" s="4"/>
@@ -3946,7 +4088,7 @@
     </row>
     <row r="356" spans="1:3" ht="14.25" customHeight="1">
       <c r="A356" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B356" s="4"/>
@@ -3954,7 +4096,7 @@
     </row>
     <row r="357" spans="1:3" ht="14.25" customHeight="1">
       <c r="A357" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B357" s="4"/>
@@ -3962,7 +4104,7 @@
     </row>
     <row r="358" spans="1:3" ht="14.25" customHeight="1">
       <c r="A358" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B358" s="4"/>
@@ -3970,7 +4112,7 @@
     </row>
     <row r="359" spans="1:3" ht="14.25" customHeight="1">
       <c r="A359" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B359" s="4"/>
@@ -3978,7 +4120,7 @@
     </row>
     <row r="360" spans="1:3" ht="14.25" customHeight="1">
       <c r="A360" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B360" s="4"/>
@@ -5226,7 +5368,7 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="F1:J3"/>
+    <mergeCell ref="F1:K3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:B2"/>
@@ -5241,8 +5383,10 @@
     <hyperlink ref="E8" r:id="rId4" xr:uid="{66BC96CD-B2F3-41E3-A9E0-5184B97DA188}"/>
     <hyperlink ref="E9" r:id="rId5" xr:uid="{F6F849D7-C1C1-4977-8624-63D358C7B630}"/>
     <hyperlink ref="E10" r:id="rId6" xr:uid="{7EC5A986-6301-44C8-A59C-138EF8167969}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{98C095C4-9249-4D74-AC0F-28C51055B8EB}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{BB47EE37-EAE7-439A-82AC-0B050C56569E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId7"/>
+  <pageSetup orientation="landscape" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Quad_Copter/Capstone_Quadcopter_Bill of Materials.xlsx
+++ b/Quad_Copter/Capstone_Quadcopter_Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/447eb0fe645bf98e/Documents/GitHub/Capstone-Sightline/Quad_Copter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{609E7FEF-C1FB-4D7F-AED1-D956BEC64491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1D8F7342-79A9-4B8D-9733-75B5581CAAC1}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{609E7FEF-C1FB-4D7F-AED1-D956BEC64491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{39E51885-EEEB-489C-9902-1348132F97DE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,10 +166,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -493,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,6 +546,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,12 +593,8 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -910,7 +914,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -930,57 +934,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="42">
+      <c r="B3" s="42"/>
+      <c r="C3" s="45">
         <v>43480</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
@@ -1288,13 +1292,13 @@
       <c r="F12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="27" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="22">
         <v>15</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="46">
         <v>39.950000000000003</v>
       </c>
       <c r="J12" s="9">
@@ -1307,7 +1311,7 @@
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1">
       <c r="A13" t="str">
-        <f t="shared" ref="A12:A360" si="1">IF(ISBLANK(C13),"",ROW()-4)</f>
+        <f t="shared" ref="A13:A360" si="1">IF(ISBLANK(C13),"",ROW()-4)</f>
         <v/>
       </c>
       <c r="B13" s="4"/>
@@ -1354,10 +1358,10 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="29">
         <f>SUM(H5:H12)</f>
         <v>1365.1999999999998</v>
       </c>

--- a/Quad_Copter/Capstone_Quadcopter_Bill of Materials.xlsx
+++ b/Quad_Copter/Capstone_Quadcopter_Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/447eb0fe645bf98e/Documents/GitHub/Capstone-Sightline/Quad_Copter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{609E7FEF-C1FB-4D7F-AED1-D956BEC64491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{39E51885-EEEB-489C-9902-1348132F97DE}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{609E7FEF-C1FB-4D7F-AED1-D956BEC64491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{58F86FA6-44F9-4743-A412-D8F99403F3F7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Item</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t xml:space="preserve">ESTIMATED WEIGHT (g) </t>
+  </si>
+  <si>
+    <t>HOBBYMATE LiPo Battery Safe Bag</t>
+  </si>
+  <si>
+    <t>HOBBYMATE</t>
+  </si>
+  <si>
+    <t>B01N52KN5C</t>
   </si>
 </sst>
 </file>
@@ -553,6 +562,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,9 +604,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -914,7 +923,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -924,7 +933,7 @@
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="48.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
@@ -934,57 +943,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="45">
+      <c r="B3" s="43"/>
+      <c r="C3" s="46">
         <v>43480</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="36"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
@@ -1086,7 +1095,7 @@
         <v>17.5</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" ref="J6:J12" si="0">C6*I6</f>
+        <f t="shared" ref="J6:J13" si="0">C6*I6</f>
         <v>17.5</v>
       </c>
       <c r="K6" s="10" t="s">
@@ -1298,7 +1307,7 @@
       <c r="H12" s="22">
         <v>15</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="30">
         <v>39.950000000000003</v>
       </c>
       <c r="J12" s="9">
@@ -1310,20 +1319,44 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A13" t="str">
-        <f t="shared" ref="A13:A360" si="1">IF(ISBLANK(C13),"",ROW()-4)</f>
-        <v/>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="20">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="24">
+        <v>9.9</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1">
       <c r="A14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A13:A360" si="1">IF(ISBLANK(C14),"",ROW()-4)</f>
         <v/>
       </c>
       <c r="B14" s="4"/>
@@ -1398,8 +1431,8 @@
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="15">
-        <f>SUM(J5:J12)</f>
-        <v>943.36000000000013</v>
+        <f>SUM(J5:J13)</f>
+        <v>953.2600000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" thickTop="1">
@@ -5389,8 +5422,9 @@
     <hyperlink ref="E10" r:id="rId6" xr:uid="{7EC5A986-6301-44C8-A59C-138EF8167969}"/>
     <hyperlink ref="E11" r:id="rId7" xr:uid="{98C095C4-9249-4D74-AC0F-28C51055B8EB}"/>
     <hyperlink ref="E12" r:id="rId8" xr:uid="{BB47EE37-EAE7-439A-82AC-0B050C56569E}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{4E4843E3-48D7-4F27-B594-9470CFE48B95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId9"/>
+  <pageSetup orientation="landscape" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Quad_Copter/Capstone_Quadcopter_Bill of Materials.xlsx
+++ b/Quad_Copter/Capstone_Quadcopter_Bill of Materials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/447eb0fe645bf98e/Documents/GitHub/Capstone-Sightline/Quad_Copter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimba\OneDrive\Documents\GitHub\Capstone-Sightline\Quad_Copter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{609E7FEF-C1FB-4D7F-AED1-D956BEC64491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{58F86FA6-44F9-4743-A412-D8F99403F3F7}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{609E7FEF-C1FB-4D7F-AED1-D956BEC64491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E8F2FAE6-9D1B-42D3-B473-9C4BE926973C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>Item</t>
   </si>
@@ -156,19 +156,37 @@
     <t>PIXHAWK 4 RADIO TELEMETRY KIT</t>
   </si>
   <si>
-    <t>IV</t>
-  </si>
-  <si>
     <t xml:space="preserve">ESTIMATED WEIGHT (g) </t>
   </si>
   <si>
-    <t>HOBBYMATE LiPo Battery Safe Bag</t>
+    <t>V</t>
   </si>
   <si>
-    <t>HOBBYMATE</t>
+    <t>XT-60 CONNECTORS MALE/FEMALE</t>
   </si>
   <si>
-    <t>B01N52KN5C</t>
+    <t>MakerDoIt</t>
+  </si>
+  <si>
+    <t>B07HPC3JQK</t>
+  </si>
+  <si>
+    <t>Prop Guards for DJI Flamewheel F450</t>
+  </si>
+  <si>
+    <t>Summit Link</t>
+  </si>
+  <si>
+    <t>B07M91QV8F</t>
+  </si>
+  <si>
+    <t>Holybro</t>
+  </si>
+  <si>
+    <t>PX4FLOW KIT camera + sonar</t>
+  </si>
+  <si>
+    <t>HOLYBRO LINK</t>
   </si>
 </sst>
 </file>
@@ -261,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -487,23 +505,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,7 +536,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -549,7 +555,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -605,6 +610,19 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -920,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -939,63 +957,65 @@
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="27" width="8" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="27" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="31" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="46">
-        <v>43480</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="B3" s="41"/>
+      <c r="C3" s="44">
+        <v>43496</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,17 +1050,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A5" s="20">
+    <row r="5" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1055,7 +1075,7 @@
       <c r="H5">
         <v>604.4</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="22">
         <v>229</v>
       </c>
       <c r="J5" s="9">
@@ -1066,17 +1086,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A6" s="20">
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>1</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1091,28 +1111,28 @@
       <c r="H6">
         <v>60</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="22">
         <v>17.5</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" ref="J6:J13" si="0">C6*I6</f>
+        <f t="shared" ref="J6:J15" si="0">C6*I6</f>
         <v>17.5</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A7" s="20">
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>1</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -1127,7 +1147,7 @@
       <c r="H7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="23">
         <v>229</v>
       </c>
       <c r="J7" s="9">
@@ -1138,17 +1158,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A8" s="20">
+    <row r="8" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A8" s="19">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>1</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1163,7 +1183,7 @@
       <c r="H8">
         <v>5.8</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="22">
         <v>31.99</v>
       </c>
       <c r="J8" s="9">
@@ -1174,17 +1194,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A9" s="20">
+    <row r="9" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A9" s="19">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>2</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1199,7 +1219,7 @@
       <c r="H9">
         <v>480</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="22">
         <v>64.989999999999995</v>
       </c>
       <c r="J9" s="9">
@@ -1210,17 +1230,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A10" s="20">
+    <row r="10" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A10" s="19">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>1</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1235,7 +1255,7 @@
       <c r="H10">
         <v>200</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <v>210.95</v>
       </c>
       <c r="J10" s="9">
@@ -1246,17 +1266,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A11" s="20">
+    <row r="11" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A11" s="19">
         <v>7</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>1</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1282,17 +1302,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A12" s="20">
+    <row r="12" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A12" s="19">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>1</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -1301,13 +1321,13 @@
       <c r="F12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <v>15</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="28">
         <v>39.950000000000003</v>
       </c>
       <c r="J12" s="9">
@@ -1318,17 +1338,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A13" s="20">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A13" s="19">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>1</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="47" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1340,48 +1360,95 @@
       <c r="G13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="24">
-        <v>9.9</v>
+      <c r="H13" s="10">
+        <v>12</v>
+      </c>
+      <c r="I13" s="22">
+        <v>11.99</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" si="0"/>
-        <v>9.9</v>
+        <v>11.99</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A14" t="str">
-        <f t="shared" ref="A13:A360" si="1">IF(ISBLANK(C14),"",ROW()-4)</f>
-        <v/>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A14">
+        <f t="shared" ref="A14:A360" si="1">IF(ISBLANK(C14),"",ROW()-4)</f>
+        <v>10</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="48">
+        <v>120</v>
+      </c>
+      <c r="I14" s="49">
+        <v>19.95</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="48">
+        <v>19</v>
+      </c>
+      <c r="I15" s="9">
+        <v>126.5</v>
+      </c>
+      <c r="J15" s="50">
+        <f t="shared" si="0"/>
+        <v>126.5</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1391,15 +1458,17 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="29">
-        <f>SUM(H5:H12)</f>
-        <v>1365.1999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" thickTop="1">
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="L16" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="27">
+        <f>SUM(H5:H15)</f>
+        <v>1516.1999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.25" customHeight="1" thickTop="1">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1411,7 +1480,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1419,23 +1488,26 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="24"/>
+      <c r="L19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="15">
-        <f>SUM(J5:J13)</f>
-        <v>953.2600000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" thickTop="1">
+      <c r="M19" s="51">
+        <f>SUM(J5:J15)</f>
+        <v>1101.8000000000002</v>
+      </c>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" thickTop="1">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1443,7 +1515,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1">
+    <row r="21" spans="1:14" ht="14.25" customHeight="1">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1451,7 +1523,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1459,7 +1531,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1">
+    <row r="23" spans="1:14" ht="14.25" customHeight="1">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1467,7 +1539,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1475,7 +1547,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1">
+    <row r="25" spans="1:14" ht="14.25" customHeight="1">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1483,7 +1555,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1491,7 +1563,7 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1">
+    <row r="27" spans="1:14" ht="14.25" customHeight="1">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1499,7 +1571,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1">
+    <row r="28" spans="1:14" ht="14.25" customHeight="1">
       <c r="A28" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1507,7 +1579,7 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1">
       <c r="A29" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1515,7 +1587,7 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1">
+    <row r="30" spans="1:14" ht="14.25" customHeight="1">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1523,7 +1595,7 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1">
       <c r="A31" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1531,7 +1603,7 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1">
+    <row r="32" spans="1:14" ht="14.25" customHeight="1">
       <c r="A32" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5423,8 +5495,10 @@
     <hyperlink ref="E11" r:id="rId7" xr:uid="{98C095C4-9249-4D74-AC0F-28C51055B8EB}"/>
     <hyperlink ref="E12" r:id="rId8" xr:uid="{BB47EE37-EAE7-439A-82AC-0B050C56569E}"/>
     <hyperlink ref="E13" r:id="rId9" xr:uid="{4E4843E3-48D7-4F27-B594-9470CFE48B95}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{8E3E2084-9B9F-4E16-84B5-5D07F651FA1B}"/>
+    <hyperlink ref="E15" r:id="rId11" xr:uid="{0F5A7A42-4E2E-4241-BB52-B5E56E712B67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId10"/>
+  <pageSetup orientation="landscape" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Quad_Copter/Capstone_Quadcopter_Bill of Materials.xlsx
+++ b/Quad_Copter/Capstone_Quadcopter_Bill of Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimba\OneDrive\Documents\GitHub\Capstone-Sightline\Quad_Copter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{609E7FEF-C1FB-4D7F-AED1-D956BEC64491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E8F2FAE6-9D1B-42D3-B473-9C4BE926973C}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{609E7FEF-C1FB-4D7F-AED1-D956BEC64491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2628EC2B-EB6E-444B-BB67-7C0CFAE7A8BB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>Item</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>HOLYBRO LINK</t>
+  </si>
+  <si>
+    <t>RAYCorp 9450 Self-Tightening (9.4x5) Propellers. 8 Pieces(4CW, 4CCW)</t>
+  </si>
+  <si>
+    <t>RAYCORP</t>
+  </si>
+  <si>
+    <t>B07H1H9SPK</t>
   </si>
 </sst>
 </file>
@@ -570,6 +579,16 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,19 +629,9 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -941,7 +950,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -963,57 +972,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="44">
+      <c r="B3" s="47"/>
+      <c r="C3" s="50">
         <v>43496</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
@@ -1348,7 +1357,7 @@
       <c r="C13" s="20">
         <v>1</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="30" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1397,10 +1406,10 @@
       <c r="G14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="31">
         <v>120</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="32">
         <v>19.95</v>
       </c>
       <c r="J14" s="24">
@@ -1434,13 +1443,13 @@
       <c r="G15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="31">
         <v>19</v>
       </c>
       <c r="I15" s="9">
         <v>126.5</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="33">
         <f t="shared" si="0"/>
         <v>126.5</v>
       </c>
@@ -1449,17 +1458,41 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="9">
+        <v>13.99</v>
+      </c>
+      <c r="J16" s="33">
+        <f>C16*I16</f>
+        <v>13.99</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="L16" s="26" t="s">
         <v>42</v>
       </c>
@@ -1501,9 +1534,9 @@
       <c r="L19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="51">
-        <f>SUM(J5:J15)</f>
-        <v>1101.8000000000002</v>
+      <c r="M19" s="34">
+        <f>SUM(J5:J16)</f>
+        <v>1115.7900000000002</v>
       </c>
       <c r="N19" s="24"/>
     </row>
@@ -5497,8 +5530,9 @@
     <hyperlink ref="E13" r:id="rId9" xr:uid="{4E4843E3-48D7-4F27-B594-9470CFE48B95}"/>
     <hyperlink ref="E14" r:id="rId10" xr:uid="{8E3E2084-9B9F-4E16-84B5-5D07F651FA1B}"/>
     <hyperlink ref="E15" r:id="rId11" xr:uid="{0F5A7A42-4E2E-4241-BB52-B5E56E712B67}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{5AA2D5FE-83F6-4BA6-BD61-4B9D1BDE15F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId12"/>
+  <pageSetup orientation="landscape" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Quad_Copter/Capstone_Quadcopter_Bill of Materials.xlsx
+++ b/Quad_Copter/Capstone_Quadcopter_Bill of Materials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimba\OneDrive\Documents\GitHub\Capstone-Sightline\Quad_Copter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/447eb0fe645bf98e/Documents/GitHub/Capstone-Sightline/Quad_Copter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{609E7FEF-C1FB-4D7F-AED1-D956BEC64491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2628EC2B-EB6E-444B-BB67-7C0CFAE7A8BB}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{609E7FEF-C1FB-4D7F-AED1-D956BEC64491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4555111B-A411-4B13-8FFE-DE449738E0B3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,6 +589,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,9 +631,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -950,7 +950,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -972,57 +972,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="35" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="50">
+      <c r="B3" s="48"/>
+      <c r="C3" s="51">
         <v>43496</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
@@ -1477,7 +1477,7 @@
       <c r="F16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="35" t="s">
         <v>55</v>
       </c>
       <c r="H16" s="29" t="s">
@@ -1501,17 +1501,21 @@
         <v>1516.1999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1" thickTop="1">
+    <row r="17" spans="1:14" ht="30.75" customHeight="1" thickTop="1">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="5"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="A18" t="str">
